--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71324.72011408316</v>
+        <v>63680.65826005283</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3575262.078445714</v>
+        <v>3575262.078445715</v>
       </c>
     </row>
     <row r="11">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424612</v>
+        <v>30.70785528783186</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796771</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="X8" t="n">
-        <v>30.70785528783204</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7.104921769599943</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>118.5811223965368</v>
+        <v>119.083910542461</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424612</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0839105424612</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0839105424612</v>
+        <v>104.8891084057996</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.8891084057998</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.1418397505084</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>122.1682864570582</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>118.3474735769335</v>
+        <v>146.1924382374057</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>385.9239273277404</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>328.5107569703947</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>91.47043035729266</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>222.0215175726367</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>168.3257202729438</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,10 +2004,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.73944708527216</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.34995949258681</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>126.7338557192081</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>201.9553939827284</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>49.34995949258704</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>51.77925078256501</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>255.950850558607</v>
       </c>
       <c r="G23" t="n">
-        <v>149.6157531058528</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E25" t="n">
-        <v>30.54231102287983</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>140.9782957589865</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.0988115239272</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>93.47781416967008</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.7012890994293</v>
+        <v>321.9370827829819</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>55.55421272101315</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.1106372348591</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>62.49116477960652</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>233.1727562202958</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>246.5329987587463</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>179.1735387309208</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258659</v>
+        <v>50.94983199904644</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>176.1446634785938</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>179.1735387309208</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>146.3917356253871</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>43.97954181326757</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>68.60881649987138</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>281.7696286507551</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>43.55349484584004</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I43" t="n">
-        <v>1.677204281244817</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>328.5107569703947</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>33.91608582564027</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,7 +4152,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>231.1678702636861</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1002694948336</v>
+        <v>281.1183051391078</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948336</v>
+        <v>160.8315268133896</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948336</v>
+        <v>160.8315268133896</v>
       </c>
       <c r="E8" t="n">
-        <v>250.1002694948336</v>
+        <v>40.54474848767148</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691153</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691153</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396895</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585574</v>
+        <v>23.57954741585572</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558042</v>
+        <v>55.41632306558034</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318072</v>
+        <v>103.131396931807</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183098</v>
+        <v>162.3261653183096</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590936</v>
+        <v>228.1917507590932</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326587</v>
+        <v>295.1231102326582</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336431</v>
+        <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455678</v>
+        <v>412.2654147455671</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245022</v>
+        <v>452.7727990245014</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648268</v>
+        <v>401.405083464826</v>
       </c>
       <c r="T8" t="n">
-        <v>401.4050834648268</v>
+        <v>401.405083464826</v>
       </c>
       <c r="U8" t="n">
-        <v>281.1183051391084</v>
+        <v>401.405083464826</v>
       </c>
       <c r="V8" t="n">
-        <v>281.1183051391084</v>
+        <v>401.405083464826</v>
       </c>
       <c r="W8" t="n">
-        <v>281.1183051391084</v>
+        <v>281.1183051391078</v>
       </c>
       <c r="X8" t="n">
-        <v>250.1002694948336</v>
+        <v>281.1183051391078</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.1002694948336</v>
+        <v>281.1183051391078</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.9831740067546</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396895</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396895</v>
+        <v>228.585396862246</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396895</v>
+        <v>134.4649821891997</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396895</v>
+        <v>134.4649821891997</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396895</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396895</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114687</v>
+        <v>16.43678475114683</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437516</v>
+        <v>134.3298561881832</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369116</v>
+        <v>166.7385335674992</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193806</v>
+        <v>210.3159997831885</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2777652564172</v>
+        <v>261.1688474406045</v>
       </c>
       <c r="N9" t="n">
-        <v>347.1708366934537</v>
+        <v>313.3676186581414</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406878</v>
+        <v>361.1192964644741</v>
       </c>
       <c r="P9" t="n">
-        <v>438.25542424255</v>
+        <v>399.4442277663362</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735251</v>
+        <v>463.8746258735243</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="U9" t="n">
-        <v>356.5567306581914</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="V9" t="n">
-        <v>236.269952332473</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="W9" t="n">
-        <v>115.9831740067546</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="X9" t="n">
-        <v>115.9831740067546</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="Y9" t="n">
-        <v>115.9831740067546</v>
+        <v>235.7620855184076</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="C10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="D10" t="n">
-        <v>356.0488638441263</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="E10" t="n">
-        <v>235.762085518408</v>
+        <v>129.813491169115</v>
       </c>
       <c r="F10" t="n">
-        <v>115.4753071926896</v>
+        <v>129.813491169115</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396895</v>
+        <v>129.813491169115</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396895</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396895</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>21.42271513642511</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760669</v>
+        <v>40.97150121137699</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405242</v>
+        <v>65.9872169758342</v>
       </c>
       <c r="M10" t="n">
-        <v>270.4599735775608</v>
+        <v>92.36278178728922</v>
       </c>
       <c r="N10" t="n">
-        <v>296.2083864100855</v>
+        <v>210.2558532243256</v>
       </c>
       <c r="O10" t="n">
-        <v>319.991213162304</v>
+        <v>328.1489246613619</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328082</v>
+        <v>446.0419960983983</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698447</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="U10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="V10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="W10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="X10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="Y10" t="n">
-        <v>476.3356421698447</v>
+        <v>356.0488638441257</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.76150051161</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="C11" t="n">
-        <v>882.6190276950331</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="D11" t="n">
-        <v>446.7092428694776</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>259.4710361454278</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5077,16 +5077,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1725.616955100576</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1320.76150051161</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1320.76150051161</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1320.76150051161</v>
+        <v>658.9737274659507</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D13" t="n">
-        <v>179.5506121696388</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>179.5506121696388</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="C14" t="n">
-        <v>716.4307943255671</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4307943255671</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X14" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y14" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117874</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.9024503859703</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>713.9024503859703</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>621.5080762876948</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L16" t="n">
-        <v>828.1746199579906</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000715</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871145</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.532494457437</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.140739790849</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.7210691049575</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1849.019264653161</v>
+        <v>616.7352229431582</v>
       </c>
       <c r="C17" t="n">
-        <v>1410.876791836584</v>
+        <v>616.7352229431582</v>
       </c>
       <c r="D17" t="n">
-        <v>974.9670070110287</v>
+        <v>616.7352229431582</v>
       </c>
       <c r="E17" t="n">
-        <v>541.1922621693238</v>
+        <v>616.7352229431582</v>
       </c>
       <c r="F17" t="n">
-        <v>541.1922621693238</v>
+        <v>616.7352229431582</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>217.2325316226353</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001362</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5554,13 +5554,13 @@
         <v>1849.019264653161</v>
       </c>
       <c r="W17" t="n">
-        <v>1849.019264653161</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X17" t="n">
-        <v>1849.019264653161</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="Y17" t="n">
-        <v>1849.019264653161</v>
+        <v>616.7352229431582</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235851</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895475</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.2333208532364</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>393.6716093364613</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871986</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895475</v>
@@ -5676,16 +5676,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.331138940781</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527957</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2310.479133515832</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2068.231909419238</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1789.845277467981</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.889769338411</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.863364924703</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>985.4716102581153</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.0519395722235</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673517</v>
+        <v>1440.733140952814</v>
       </c>
       <c r="C20" t="n">
-        <v>1120.886428673517</v>
+        <v>1002.590668136238</v>
       </c>
       <c r="D20" t="n">
-        <v>684.976643847961</v>
+        <v>1002.590668136238</v>
       </c>
       <c r="E20" t="n">
-        <v>251.2018990062562</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>251.2018990062562</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895475</v>
@@ -5749,16 +5749,16 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858771</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.472122858771</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158424</v>
+        <v>1440.733140952814</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851425</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683674</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871986</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895475</v>
+        <v>294.9481722511332</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895475</v>
@@ -5919,16 +5919,16 @@
         <v>744.9929992049551</v>
       </c>
       <c r="M22" t="n">
-        <v>1329.17407462327</v>
+        <v>875.5973915434847</v>
       </c>
       <c r="N22" t="n">
-        <v>1898.931789584804</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.85648477097</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041296</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.028006962829</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="C23" t="n">
-        <v>1495.885534146253</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D23" t="n">
-        <v>1059.975749320697</v>
+        <v>974.9670070110287</v>
       </c>
       <c r="E23" t="n">
-        <v>626.2010044789922</v>
+        <v>974.9670070110287</v>
       </c>
       <c r="F23" t="n">
-        <v>198.3335748882</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O23" t="n">
         <v>1775.96950697326</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043086</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,52 +6123,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C25" t="n">
-        <v>616.081764785142</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D25" t="n">
-        <v>450.2037719866647</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>326.783117436994</v>
+        <v>733.422710770688</v>
       </c>
       <c r="M25" t="n">
-        <v>718.6204178572112</v>
+        <v>1317.603786189003</v>
       </c>
       <c r="N25" t="n">
-        <v>1288.378132818745</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498299</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
@@ -6177,10 +6177,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V25" t="n">
         <v>1552.738213270317</v>
@@ -6192,7 +6192,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.26120212753</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="C26" t="n">
-        <v>1744.26120212753</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2149.116656716497</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2149.116656716497</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2149.116656716497</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1744.26120212753</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X26" t="n">
-        <v>1744.26120212753</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.26120212753</v>
+        <v>1025.021346643504</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092379</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041287</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y29" t="n">
-        <v>1941.185114027048</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="30">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M31" t="n">
         <v>1066.127311827553</v>
@@ -6666,7 +6666,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>979.2046878051592</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>2060.790516184048</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>2060.790516184048</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>795.2066002154656</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C34" t="n">
-        <v>622.6448886986906</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D34" t="n">
-        <v>456.7668959002132</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E34" t="n">
-        <v>287.0088921509505</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F34" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>875.5973915434845</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954412</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2297.205188781467</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.81855683021</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V34" t="n">
-        <v>1731.863048700641</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W34" t="n">
-        <v>1459.836644286932</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X34" t="n">
-        <v>1214.444889620345</v>
+        <v>1143.004457871279</v>
       </c>
       <c r="Y34" t="n">
-        <v>987.0252189344528</v>
+        <v>915.5847871853875</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1170.282040260528</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C35" t="n">
-        <v>732.1395674439509</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>296.2297826183954</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>296.2297826183954</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>296.2297826183954</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G35" t="n">
-        <v>296.2297826183954</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O35" t="n">
         <v>1775.96950697326</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6973,16 +6973,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1578.568163960874</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1170.282040260528</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I36" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>289.4920009833859</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092381</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>910.964192855309</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P37" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2360.327577447737</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
-        <v>1922.18510463116</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1486.275319805605</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>1052.5005749639</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>624.6331453731077</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G38" t="n">
-        <v>225.1304540525849</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,10 +7192,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
@@ -7216,10 +7216,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="Y38" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>725.0155228957786</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>555.257519146516</v>
       </c>
       <c r="F40" t="n">
         <v>407.3870791208724</v>
@@ -7329,55 +7329,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>862.0820538119947</v>
       </c>
       <c r="M40" t="n">
-        <v>818.7256495113488</v>
+        <v>992.6864461505241</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2315.903797838376</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>2315.903797838376</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1463.186063953456</v>
+        <v>1377.65325215033</v>
       </c>
       <c r="C41" t="n">
-        <v>1463.186063953456</v>
+        <v>1377.65325215033</v>
       </c>
       <c r="D41" t="n">
-        <v>1463.186063953456</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>1029.411319111751</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>601.5438895209586</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="V41" t="n">
-        <v>1889.485634438363</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W41" t="n">
-        <v>1889.485634438363</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X41" t="n">
-        <v>1889.485634438363</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.485634438363</v>
+        <v>1377.65325215033</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.3289888817353</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>858.3289888817353</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>692.450996083258</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>522.6929923339953</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>345.9859382957516</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>181.24475790827</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>48.90069728758587</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909402</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.959032953202</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.567278286614</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.147607600722</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.573267142144</v>
+        <v>1893.561637177627</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>1019.509379535495</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>585.7346346937898</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>157.8672051029975</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043032</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>896.8524940391952</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="C46" t="n">
-        <v>724.2907825224202</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239429</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>688.1212571728196</v>
       </c>
       <c r="M46" t="n">
         <v>1066.127311827553</v>
@@ -7821,37 +7821,37 @@
         <v>1635.885026789087</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.482538110662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1316.090783444074</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1088.671112758182</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.93061208465465</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.71739775719249</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959548</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.058564081718487</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39.20322876385148</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442576</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273182999</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698777</v>
       </c>
       <c r="P10" t="n">
-        <v>18.28387946838362</v>
+        <v>98.52803488912321</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340656</v>
+        <v>16.36781968801421</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032066</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L16" t="n">
-        <v>141.4680432173446</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>141.468043217345</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9567,19 +9567,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>118.271772330343</v>
       </c>
       <c r="O22" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>45.7590440382512</v>
       </c>
       <c r="M25" t="n">
-        <v>263.8716243249372</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042871</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>118.2717723303419</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>69.27619576520624</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>252.439422383381</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>263.1722038422879</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11220,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>69.2761957652063</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>347.0837767286137</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042871</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>249.9006690062668</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23023,22 +23023,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.67713754595</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>310.3530868508268</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524231</v>
+        <v>392.8809000070524</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021307</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5158574008319</v>
+        <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>281.7229895006161</v>
       </c>
       <c r="X8" t="n">
-        <v>384.2431834986504</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23102,22 +23102,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>87.03446419531234</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23156,13 +23156,13 @@
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.97872180111133</v>
+        <v>55.47593365518718</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615945</v>
+        <v>78.04243221615967</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167674</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23184,22 +23184,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803134</v>
+        <v>45.13530232803156</v>
       </c>
       <c r="E10" t="n">
-        <v>48.97651316930893</v>
+        <v>63.17131530597051</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295540015</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>58.87629393274185</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952794</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742789</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616405</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843873</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>56.88249619102029</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>236.8224941084536</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.87173929355905</v>
+        <v>18.02677463308686</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>45.62675964955946</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>72.29614307268236</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>72.74878251319987</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>276.3631494550537</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>173.4861468346809</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>98.69861566858486</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>149.4797657852204</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.63231361822102</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>302.7031416740797</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>193.5522704245892</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>114.8692533779055</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>167.6379047362774</v>
       </c>
       <c r="G23" t="n">
-        <v>245.8919113014648</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E25" t="n">
-        <v>137.5181126888903</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>292.7827523294244</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5547274916516756</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>131.6676598093627</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>265.3352856806295</v>
+        <v>100.0994919970768</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>169.5912612580196</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.9259375451996</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>177.3335870760209</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>9.765080899625815</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>20.49133718278239</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>235.7775000555616</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779059</v>
+        <v>113.2693808714461</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>90.87967246293483</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>235.7775000555616</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>28.54824787247421</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>195.8452100423598</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>362.9418704774286</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>113.7380357565625</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>146.3469376859572</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.78712941686961</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>93.52581780966403</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>285.9536173888152</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>155.984346706157</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>38.13827010588528</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91256.77848036731</v>
+        <v>91256.77848036712</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402314.0128592895</v>
+        <v>402314.0128592894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402314.0128592895</v>
+        <v>402314.0128592894</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402314.0128592895</v>
+        <v>402314.0128592896</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402314.0128592894</v>
+        <v>402314.0128592895</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072107</v>
+        <v>36428.595750721</v>
       </c>
       <c r="E2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="F2" t="n">
         <v>165162.4498658581</v>
@@ -26334,7 +26334,7 @@
         <v>165162.4498658582</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658581</v>
@@ -26343,16 +26343,16 @@
         <v>165162.4498658581</v>
       </c>
       <c r="L2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="M2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="N2" t="n">
+        <v>165162.4498658582</v>
+      </c>
+      <c r="O2" t="n">
         <v>165162.4498658581</v>
-      </c>
-      <c r="O2" t="n">
-        <v>165162.4498658582</v>
       </c>
       <c r="P2" t="n">
         <v>165162.4498658582</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730581</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018044</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310202</v>
+        <v>30139.06600310199</v>
       </c>
       <c r="M3" t="n">
         <v>117374.581559748</v>
@@ -26423,13 +26423,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6359.985522141877</v>
+        <v>6359.985522141866</v>
       </c>
       <c r="E4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="F4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="G4" t="n">
         <v>17402.73254778062</v>
@@ -26438,25 +26438,25 @@
         <v>17402.73254778062</v>
       </c>
       <c r="I4" t="n">
+        <v>17402.73254778063</v>
+      </c>
+      <c r="J4" t="n">
         <v>17402.73254778062</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>17402.73254778061</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>17402.73254778062</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17402.73254778061</v>
       </c>
       <c r="M4" t="n">
         <v>17402.73254778062</v>
       </c>
       <c r="N4" t="n">
+        <v>17402.73254778062</v>
+      </c>
+      <c r="O4" t="n">
         <v>17402.73254778061</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17402.73254778062</v>
       </c>
       <c r="P4" t="n">
         <v>17402.73254778062</v>
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239239</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46051.08120963783</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963783</v>
       </c>
       <c r="I5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="J5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130562.4196168713</v>
+        <v>-131729.3184130223</v>
       </c>
       <c r="E6" t="n">
-        <v>-338149.6089096043</v>
+        <v>-338703.4893528263</v>
       </c>
       <c r="F6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652177</v>
       </c>
       <c r="G6" t="n">
-        <v>101708.6361084398</v>
+        <v>101154.7556652178</v>
       </c>
       <c r="H6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652178</v>
       </c>
       <c r="I6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652178</v>
       </c>
       <c r="J6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652178</v>
       </c>
       <c r="K6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652177</v>
       </c>
       <c r="L6" t="n">
-        <v>71569.57010533768</v>
+        <v>71015.68966211579</v>
       </c>
       <c r="M6" t="n">
-        <v>-15665.94545130827</v>
+        <v>-16219.82589453025</v>
       </c>
       <c r="N6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652178</v>
       </c>
       <c r="O6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652177</v>
       </c>
       <c r="P6" t="n">
-        <v>101708.6361084397</v>
+        <v>101154.7556652178</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480496</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932213</v>
@@ -26773,13 +26773,13 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619344</v>
@@ -26810,28 +26810,28 @@
         <v>590.0818943619344</v>
       </c>
       <c r="I4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480496</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184162</v>
+        <v>372.4514459184163</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529845</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624003</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555445</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214615</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931998</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990165</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463003</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168196</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725696</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679265</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670138</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196218</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033643</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65861903807119</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023875</v>
+        <v>0.0303117128602387</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250522</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857741</v>
+        <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888859</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780636</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688485</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211057</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852687</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286565</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619476</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006282</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542947</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779754</v>
+        <v>12.58688514779752</v>
       </c>
       <c r="S9" t="n">
-        <v>3.76557350953112</v>
+        <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457144</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322712</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889925</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540316</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643523</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235177</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055749</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207804</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803543</v>
+        <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063103</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547324</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333778</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839555</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517789</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083623</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075133</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308694</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32229,31 +32229,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699141</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415856</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646691</v>
@@ -32572,7 +32572,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233626</v>
@@ -33022,7 +33022,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33754,10 +33754,10 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233624</v>
@@ -33888,13 +33888,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -33903,10 +33903,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -34140,10 +34140,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,13 +34362,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -34377,10 +34377,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I45" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917233</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642305</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214615</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931999</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990166</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463002</v>
+        <v>66.53089438462993</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168197</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725697</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679264</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767014</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
         <v>23.80085166196216</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.97987061388886</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780635</v>
+        <v>119.083910542461</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688485</v>
+        <v>32.7360377568848</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211056</v>
+        <v>44.0176426421105</v>
       </c>
       <c r="M9" t="n">
-        <v>119.0839105424612</v>
+        <v>51.36651278526858</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424612</v>
+        <v>52.72603153286559</v>
       </c>
       <c r="O9" t="n">
-        <v>53.29258206791326</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006281</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>65.08121020928093</v>
       </c>
       <c r="R9" t="n">
         <v>12.58688514779755</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143244</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7462485605575</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207805</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>119.0839105424612</v>
+        <v>26.64198465803538</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063101</v>
+        <v>119.083910542461</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547325</v>
+        <v>119.083910542461</v>
       </c>
       <c r="P10" t="n">
-        <v>38.8397551217214</v>
+        <v>119.083910542461</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424612</v>
+        <v>30.59964249640973</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35430,7 +35430,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030951</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L16" t="n">
-        <v>266.5900650540092</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166786</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35962,7 +35962,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,10 +35971,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>260.4234789221548</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36202,7 +36202,7 @@
         <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415856</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646691</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36287,19 +36287,19 @@
         <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>247.0585519302315</v>
       </c>
       <c r="O22" t="n">
-        <v>277.15996745235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027016</v>
@@ -36363,10 +36363,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>170.8810658749157</v>
       </c>
       <c r="M25" t="n">
-        <v>395.7952529497144</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N25" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,7 +36609,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36755,25 +36755,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
@@ -37238,7 +37238,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>247.0585519302304</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,13 +37402,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>194.3982176018708</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>381.2262019832694</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,10 +37560,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>388.2942256789526</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,10 +37721,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263762</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>466.0392124334235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916724</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409517</v>
+        <v>125.1220218366647</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>381.824297631044</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
@@ -38198,7 +38198,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
